--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="220">
   <si>
     <t xml:space="preserve">Cedula</t>
   </si>
@@ -853,6 +853,9 @@
     <t xml:space="preserve">pais</t>
   </si>
   <si>
+    <t xml:space="preserve">ciudadExt</t>
+  </si>
+  <si>
     <t xml:space="preserve">monto</t>
   </si>
   <si>
@@ -955,292 +958,298 @@
     <t xml:space="preserve">ciudadRefF</t>
   </si>
   <si>
+    <t xml:space="preserve">"91077296"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"55857"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Soacha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ANGEL MARIA MEJIA SANDOVAL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"06/09/1979"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3183903022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"aalvarez@excelcredit.co" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pensionado"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Entidad donde trabaja"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"20000000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1.70"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"60"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"100"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"260000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"100000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"5500000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"300000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Compra de cartera"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"12345"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ANGEL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"MARIA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"MEJIA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SANDOVAL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ANGEL MARIA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"18/01/1974" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"F"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Estrato 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Arriendo" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Casa" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jefe de hogar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Universitario" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desprendible de nómina" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"30000000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"AAA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"colombia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"colombiano"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Soltera/o"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ingeniero" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Antioquia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abejorral" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cra 14 No. 93a - 30" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"123456"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"01/01/2015"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"30/12/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"123456"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Certificación laboral"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"CEO"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Luis Perez Ramirez"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1234567890"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"No"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Importaciones"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Santander"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"966855"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Inversiones en oro" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Alemania"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Berlin" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"8500"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Euros"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"12/12/2008"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Febrero"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"20/07/1963"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Efectivo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"16/02/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Vinculado"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Plan 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Si"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Juli Macias"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Prima"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"maria"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"camila"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lopez"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cardenas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Amigo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3204567894"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Arauca"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"juan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"david"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"reyes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sanchez"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Hijo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3204047804"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Amazonas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Leticia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retanqueo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"7500000"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"10092369"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"55857"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Soacha"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"JAIRO MENDOZA DIAZ"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"19/10/1952"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"3183903022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"aalvarez@excelcredit.co" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pensionado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"P.A COLPENSIONES"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Entidad donde trabaja"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"20000000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1.70"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"60"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"100"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"260000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"100000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"5500000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"300000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Retanqueo compra de cartera"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pendientes por Radicar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"12345"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"JAIRO"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"MENDOZA" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"DIAZ"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"18/01/1974" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"F"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Estrato 1" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Arriendo" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Casa" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Jefe de hogar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Universitario" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Desprendible de nómina" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"30000000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pago ma+AG1:AM2sivo (efectivo)" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"AAA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"colombia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"colombiano"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Soltera/o"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ingeniero" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Antioquia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Abejorral" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cra 14 No. 93a - 30" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"24"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"0"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"pension"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"123456"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"01/01/2015"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"30/12/2022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"123456"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Certificación laboral"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"CEO"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Luis Perez Ramirez"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1234567890"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"No"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Importaciones"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Santander"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"966855"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Inversiones en oro" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Alemania"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Berlin" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"8500"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Euros"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"12/12/2008"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Febrero"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"20/07/1963"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Efectivo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"16/02/2022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Vinculado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Plan 1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Si"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Juli Macias"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Prima"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"maria"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"camila"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"lopez"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"cardenas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Amigo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"3204567894"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Arauca"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"juan"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"david"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"reyes"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"sanchez"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hijo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"3204047804"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Amazonas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Leticia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retanqueo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"7500000"</t>
   </si>
   <si>
     <t xml:space="preserve">"68003"</t>
@@ -1421,7 +1430,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1431,10 +1440,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1565,13 +1570,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CY3"/>
+  <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CU1" activeCellId="0" sqref="CU1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BQ1" activeCellId="0" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.01"/>
@@ -1633,7 +1638,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="17.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,174 +1844,174 @@
         <v>67</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>123</v>
@@ -2018,256 +2023,242 @@
         <v>125</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BE2" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BG2" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BK2" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BM2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="BT2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="BN2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ2" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="BR2" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS2" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT2" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="BU2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BV2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BW2" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BX2" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BY2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BZ2" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CA2" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CB2" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="CC2" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CD2" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CE2" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CF2" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CG2" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CH2" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CI2" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CJ2" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CK2" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CL2" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CM2" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CN2" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CO2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CP2" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CQ2" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CR2" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="CS2" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="CT2" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CU2" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CV2" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="CW2" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CX2" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CY2" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="W3" s="1"/>
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2295,11 +2286,11 @@
       <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2338,99 +2329,99 @@
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>119</v>
+      <c r="F2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>204</v>
+        <v>150</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2459,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2679,43 +2670,43 @@
         <v>46</v>
       </c>
       <c r="BR2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,12 +2717,12 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\digicredito-serenety-bdd\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB12B52C-E702-430E-87A5-7206B414E10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567ADE5-BB7B-4D86-A70E-27C5338D3795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
@@ -959,349 +959,349 @@
     <t>"Pensionado"</t>
   </si>
   <si>
+    <t>"Entidad donde trabaja"</t>
+  </si>
+  <si>
+    <t>"20000000"</t>
+  </si>
+  <si>
+    <t>"1.70"</t>
+  </si>
+  <si>
+    <t>"60"</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>"260000"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"5500000"</t>
+  </si>
+  <si>
+    <t>"300000"</t>
+  </si>
+  <si>
+    <t>"Retanqueo compra de cartera"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t>"F"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Estrato 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Arriendo" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Casa" </t>
+  </si>
+  <si>
+    <t>"Jefe de hogar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Universitario" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desprendible de nómina" </t>
+  </si>
+  <si>
+    <t>"30000000"</t>
+  </si>
+  <si>
+    <t>"AAA"</t>
+  </si>
+  <si>
+    <t>"colombia"</t>
+  </si>
+  <si>
+    <t>"colombiano"</t>
+  </si>
+  <si>
+    <t>"Soltera/o"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ingeniero" </t>
+  </si>
+  <si>
+    <t>"Antioquia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abejorral" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cra 14 No. 93a - 30" </t>
+  </si>
+  <si>
+    <t>"24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2"   </t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>"pension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"123456"  </t>
+  </si>
+  <si>
+    <t>"01/01/2015"</t>
+  </si>
+  <si>
+    <t>"30/12/2022"</t>
+  </si>
+  <si>
+    <t>"123456"</t>
+  </si>
+  <si>
+    <t>"Certificación laboral"</t>
+  </si>
+  <si>
+    <t>"CEO"</t>
+  </si>
+  <si>
+    <t>"Luis Perez Ramirez"</t>
+  </si>
+  <si>
+    <t>"1234567890"</t>
+  </si>
+  <si>
+    <t>"No"</t>
+  </si>
+  <si>
+    <t>"Importaciones"</t>
+  </si>
+  <si>
+    <t>"Santander"</t>
+  </si>
+  <si>
+    <t>"966855"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Inversiones en oro" </t>
+  </si>
+  <si>
+    <t>"Alemania"</t>
+  </si>
+  <si>
+    <t>"8500"</t>
+  </si>
+  <si>
+    <t>"Euros"</t>
+  </si>
+  <si>
+    <t>"12/12/2008"</t>
+  </si>
+  <si>
+    <t>"Febrero"</t>
+  </si>
+  <si>
+    <t>"20/07/1963"</t>
+  </si>
+  <si>
+    <t>"2022"</t>
+  </si>
+  <si>
+    <t>"Efectivo"</t>
+  </si>
+  <si>
+    <t>"16/02/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>"Vinculado"</t>
+  </si>
+  <si>
+    <t>"Plan 1"</t>
+  </si>
+  <si>
+    <t>"Si"</t>
+  </si>
+  <si>
+    <t>"Juli Macias"</t>
+  </si>
+  <si>
+    <t>"Prima"</t>
+  </si>
+  <si>
+    <t>"maria"</t>
+  </si>
+  <si>
+    <t>"camila"</t>
+  </si>
+  <si>
+    <t>"lopez"</t>
+  </si>
+  <si>
+    <t>"cardenas"</t>
+  </si>
+  <si>
+    <t>"Amigo"</t>
+  </si>
+  <si>
+    <t>"3204567894"</t>
+  </si>
+  <si>
+    <t>"Arauca"</t>
+  </si>
+  <si>
+    <t>"juan"</t>
+  </si>
+  <si>
+    <t>"david"</t>
+  </si>
+  <si>
+    <t>"reyes"</t>
+  </si>
+  <si>
+    <t>"sanchez"</t>
+  </si>
+  <si>
+    <t>"Hijo"</t>
+  </si>
+  <si>
+    <t>"3204047804"</t>
+  </si>
+  <si>
+    <t>"Amazonas"</t>
+  </si>
+  <si>
+    <t>"Leticia"</t>
+  </si>
+  <si>
+    <t>Retanqueo</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>"7500000"</t>
+  </si>
+  <si>
+    <t>"68003"</t>
+  </si>
+  <si>
+    <t>"src/test/resources/Data/PDFPRUEBA.pdf"</t>
+  </si>
+  <si>
+    <t>"1.80"</t>
+  </si>
+  <si>
+    <t>"50"</t>
+  </si>
+  <si>
+    <t>"8700000"</t>
+  </si>
+  <si>
+    <t>"250000"</t>
+  </si>
+  <si>
+    <t>"2258"</t>
+  </si>
+  <si>
+    <t>"OSCAR"</t>
+  </si>
+  <si>
+    <t>"Octubre"</t>
+  </si>
+  <si>
+    <t>"14/06/1969"</t>
+  </si>
+  <si>
+    <t>"2021"</t>
+  </si>
+  <si>
+    <t>"3115128152"</t>
+  </si>
+  <si>
+    <t>"dandresabogadog@mail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Efectivo" </t>
+  </si>
+  <si>
+    <t>"20/10/2021"</t>
+  </si>
+  <si>
+    <t>"Remanentes - 60237038927 - REMANENTE"</t>
+  </si>
+  <si>
+    <t>"86292"</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
+  </si>
+  <si>
+    <t>"15/02/1956"</t>
+  </si>
+  <si>
+    <t>"GUILLERMO"</t>
+  </si>
+  <si>
+    <t>"LEON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"GUERRERO" </t>
+  </si>
+  <si>
+    <t>"BENAVIDES"</t>
+  </si>
+  <si>
+    <t>"GUILLERMO LEON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"06/08/1976" </t>
+  </si>
+  <si>
+    <t>"Berlin"</t>
+  </si>
+  <si>
+    <t>ciudadExt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"thainer.perez@gmail.com"  </t>
+  </si>
+  <si>
+    <t>"3133421083"</t>
+  </si>
+  <si>
+    <t>"93784"</t>
+  </si>
+  <si>
     <t>"P.A COLPENSIONES"</t>
   </si>
   <si>
-    <t>"Entidad donde trabaja"</t>
-  </si>
-  <si>
-    <t>"20000000"</t>
-  </si>
-  <si>
-    <t>"1.70"</t>
-  </si>
-  <si>
-    <t>"60"</t>
-  </si>
-  <si>
-    <t>"100"</t>
-  </si>
-  <si>
-    <t>"260000"</t>
-  </si>
-  <si>
-    <t>"100000"</t>
-  </si>
-  <si>
-    <t>"5500000"</t>
-  </si>
-  <si>
-    <t>"300000"</t>
-  </si>
-  <si>
-    <t>"Retanqueo compra de cartera"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"12345"</t>
-  </si>
-  <si>
-    <t>"F"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Estrato 1" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Arriendo" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Casa" </t>
-  </si>
-  <si>
-    <t>"Jefe de hogar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Universitario" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Desprendible de nómina" </t>
-  </si>
-  <si>
-    <t>"30000000"</t>
-  </si>
-  <si>
-    <t>"AAA"</t>
-  </si>
-  <si>
-    <t>"colombia"</t>
-  </si>
-  <si>
-    <t>"colombiano"</t>
-  </si>
-  <si>
-    <t>"Soltera/o"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ingeniero" </t>
-  </si>
-  <si>
-    <t>"Antioquia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Abejorral" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cra 14 No. 93a - 30" </t>
-  </si>
-  <si>
-    <t>"24"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2"   </t>
-  </si>
-  <si>
-    <t>"0"</t>
-  </si>
-  <si>
-    <t>"pension"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"123456"  </t>
-  </si>
-  <si>
-    <t>"01/01/2015"</t>
-  </si>
-  <si>
-    <t>"30/12/2022"</t>
-  </si>
-  <si>
-    <t>"123456"</t>
-  </si>
-  <si>
-    <t>"Certificación laboral"</t>
-  </si>
-  <si>
-    <t>"CEO"</t>
-  </si>
-  <si>
-    <t>"Luis Perez Ramirez"</t>
-  </si>
-  <si>
-    <t>"1234567890"</t>
-  </si>
-  <si>
-    <t>"No"</t>
-  </si>
-  <si>
-    <t>"Importaciones"</t>
-  </si>
-  <si>
-    <t>"Santander"</t>
-  </si>
-  <si>
-    <t>"966855"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Inversiones en oro" </t>
-  </si>
-  <si>
-    <t>"Alemania"</t>
-  </si>
-  <si>
-    <t>"8500"</t>
-  </si>
-  <si>
-    <t>"Euros"</t>
-  </si>
-  <si>
-    <t>"12/12/2008"</t>
-  </si>
-  <si>
-    <t>"Febrero"</t>
-  </si>
-  <si>
-    <t>"20/07/1963"</t>
-  </si>
-  <si>
-    <t>"2022"</t>
-  </si>
-  <si>
-    <t>"Efectivo"</t>
-  </si>
-  <si>
-    <t>"16/02/2022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>"Vinculado"</t>
-  </si>
-  <si>
-    <t>"Plan 1"</t>
-  </si>
-  <si>
-    <t>"Si"</t>
-  </si>
-  <si>
-    <t>"Juli Macias"</t>
-  </si>
-  <si>
-    <t>"Prima"</t>
-  </si>
-  <si>
-    <t>"maria"</t>
-  </si>
-  <si>
-    <t>"camila"</t>
-  </si>
-  <si>
-    <t>"lopez"</t>
-  </si>
-  <si>
-    <t>"cardenas"</t>
-  </si>
-  <si>
-    <t>"Amigo"</t>
-  </si>
-  <si>
-    <t>"3204567894"</t>
-  </si>
-  <si>
-    <t>"Arauca"</t>
-  </si>
-  <si>
-    <t>"juan"</t>
-  </si>
-  <si>
-    <t>"david"</t>
-  </si>
-  <si>
-    <t>"reyes"</t>
-  </si>
-  <si>
-    <t>"sanchez"</t>
-  </si>
-  <si>
-    <t>"Hijo"</t>
-  </si>
-  <si>
-    <t>"3204047804"</t>
-  </si>
-  <si>
-    <t>"Amazonas"</t>
-  </si>
-  <si>
-    <t>"Leticia"</t>
-  </si>
-  <si>
-    <t>Retanqueo</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>"7500000"</t>
-  </si>
-  <si>
-    <t>"68003"</t>
-  </si>
-  <si>
-    <t>"src/test/resources/Data/PDFPRUEBA.pdf"</t>
-  </si>
-  <si>
-    <t>"1.80"</t>
-  </si>
-  <si>
-    <t>"50"</t>
-  </si>
-  <si>
-    <t>"8700000"</t>
-  </si>
-  <si>
-    <t>"250000"</t>
-  </si>
-  <si>
-    <t>"2258"</t>
-  </si>
-  <si>
-    <t>"OSCAR"</t>
-  </si>
-  <si>
-    <t>"Octubre"</t>
-  </si>
-  <si>
-    <t>"14/06/1969"</t>
-  </si>
-  <si>
-    <t>"2021"</t>
-  </si>
-  <si>
-    <t>"3115128152"</t>
-  </si>
-  <si>
-    <t>"dandresabogadog@mail.com"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Efectivo" </t>
-  </si>
-  <si>
-    <t>"20/10/2021"</t>
-  </si>
-  <si>
-    <t>"Remanentes - 60237038927 - REMANENTE"</t>
-  </si>
-  <si>
-    <t>"86292"</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
-  </si>
-  <si>
-    <t>"79100699"</t>
-  </si>
-  <si>
-    <t>"57743"</t>
-  </si>
-  <si>
-    <t>"GUILLERMO LEON GUERRERO BENAVIDES"</t>
-  </si>
-  <si>
-    <t>"15/02/1956"</t>
-  </si>
-  <si>
-    <t>"GUILLERMO"</t>
-  </si>
-  <si>
-    <t>"LEON"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"GUERRERO" </t>
-  </si>
-  <si>
-    <t>"BENAVIDES"</t>
-  </si>
-  <si>
-    <t>"GUILLERMO LEON"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"06/08/1976" </t>
-  </si>
-  <si>
-    <t>"Berlin"</t>
-  </si>
-  <si>
-    <t>ciudadExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"thainer.perez@gmail.com"  </t>
-  </si>
-  <si>
-    <t>"3133421083"</t>
+    <t>"20618514"</t>
+  </si>
+  <si>
+    <t>"SOLEDAD BERMUDEZ MORALES"</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2090,7 @@
         <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="BR1" t="s">
         <v>68</v>
@@ -2197,313 +2197,313 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
         <v>105</v>
       </c>
       <c r="I2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>108</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>109</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>110</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>111</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>112</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>115</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>116</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" t="s">
         <v>118</v>
       </c>
-      <c r="V2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD2" t="s">
         <v>119</v>
       </c>
-      <c r="X2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>121</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>122</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>123</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>124</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" t="s">
         <v>125</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>126</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN2" t="s">
         <v>127</v>
       </c>
-      <c r="AM2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>128</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>129</v>
       </c>
-      <c r="AP2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>130</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>131</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>132</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>133</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>134</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>135</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>136</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>137</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>138</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>139</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>140</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>141</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>142</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>143</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>144</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>145</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>146</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>147</v>
       </c>
       <c r="BI2" t="s">
         <v>104</v>
       </c>
       <c r="BJ2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK2" t="s">
         <v>148</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM2" t="s">
         <v>149</v>
       </c>
-      <c r="BL2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>150</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>151</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>152</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR2" t="s">
         <v>153</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>154</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW2" t="s">
         <v>155</v>
       </c>
-      <c r="BT2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>156</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>157</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>158</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>159</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>160</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>161</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>162</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>163</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>164</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>165</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>166</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>167</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>168</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>169</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>170</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>171</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>172</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>173</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>174</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CR2" t="s">
         <v>175</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>176</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>177</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>178</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>179</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>180</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>181</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>182</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -2596,70 +2596,70 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
       <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" t="s">
         <v>193</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>194</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>195</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>196</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" t="s">
         <v>199</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>200</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" t="s">
         <v>202</v>
-      </c>
-      <c r="V2" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2947,12 +2947,12 @@
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\digicredito-serenety-bdd\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567ADE5-BB7B-4D86-A70E-27C5338D3795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB82BF-E151-4689-8EE6-30CB40B79B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
@@ -1019,9 +1019,6 @@
     <t xml:space="preserve">"Desprendible de nómina" </t>
   </si>
   <si>
-    <t>"30000000"</t>
-  </si>
-  <si>
     <t>"AAA"</t>
   </si>
   <si>
@@ -1262,21 +1259,6 @@
     <t>"15/02/1956"</t>
   </si>
   <si>
-    <t>"GUILLERMO"</t>
-  </si>
-  <si>
-    <t>"LEON"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"GUERRERO" </t>
-  </si>
-  <si>
-    <t>"BENAVIDES"</t>
-  </si>
-  <si>
-    <t>"GUILLERMO LEON"</t>
-  </si>
-  <si>
     <t xml:space="preserve">"06/08/1976" </t>
   </si>
   <si>
@@ -1292,16 +1274,34 @@
     <t>"3133421083"</t>
   </si>
   <si>
-    <t>"93784"</t>
-  </si>
-  <si>
     <t>"P.A COLPENSIONES"</t>
   </si>
   <si>
-    <t>"20618514"</t>
-  </si>
-  <si>
-    <t>"SOLEDAD BERMUDEZ MORALES"</t>
+    <t>"DELIO ARNULFO ROJAS GUIO"</t>
+  </si>
+  <si>
+    <t>"5744075"</t>
+  </si>
+  <si>
+    <t>"81768"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ROJAS" </t>
+  </si>
+  <si>
+    <t>"GUIO"</t>
+  </si>
+  <si>
+    <t>"DELIO"</t>
+  </si>
+  <si>
+    <t>"ARNULFO"</t>
+  </si>
+  <si>
+    <t>"DELIO ARNULFO"</t>
+  </si>
+  <si>
+    <t>"5000000"</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2090,7 @@
         <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BR1" t="s">
         <v>68</v>
@@ -2197,31 +2197,31 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
         <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J2" t="s">
         <v>106</v>
@@ -2266,22 +2266,22 @@
         <v>118</v>
       </c>
       <c r="X2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AB2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AD2" t="s">
         <v>119</v>
@@ -2308,202 +2308,202 @@
         <v>125</v>
       </c>
       <c r="AL2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN2" t="s">
         <v>126</v>
       </c>
-      <c r="AM2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>127</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>128</v>
       </c>
-      <c r="AP2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>129</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>131</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>132</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>133</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>134</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>135</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>136</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>137</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>138</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>139</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>140</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>141</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>142</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>143</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>144</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>145</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>146</v>
       </c>
       <c r="BI2" t="s">
         <v>104</v>
       </c>
       <c r="BJ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" t="s">
         <v>147</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM2" t="s">
         <v>148</v>
       </c>
-      <c r="BL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>149</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>150</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>151</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR2" t="s">
         <v>152</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>153</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW2" t="s">
         <v>154</v>
       </c>
-      <c r="BT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>155</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>156</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>157</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>158</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>159</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>160</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>161</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>162</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>163</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>164</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>165</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>166</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>167</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>168</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>169</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>170</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>171</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>172</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>173</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR2" t="s">
         <v>174</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>175</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>176</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>177</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>178</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>179</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>180</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>181</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -2596,70 +2596,70 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
       <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" t="s">
         <v>192</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>193</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>194</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>195</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>196</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" t="s">
         <v>198</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>199</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" t="s">
         <v>201</v>
-      </c>
-      <c r="V2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2947,12 +2947,12 @@
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\digicredito-serenety-bdd\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB82BF-E151-4689-8EE6-30CB40B79B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869B3C8-6876-46DF-9286-5F59EC5E02A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="215">
   <si>
     <t>Cedula</t>
   </si>
@@ -917,12 +917,6 @@
     <t>celRefP</t>
   </si>
   <si>
-    <t>deptoRefP</t>
-  </si>
-  <si>
-    <t>ciudadRefP</t>
-  </si>
-  <si>
     <t>pNombreRefF</t>
   </si>
   <si>
@@ -941,12 +935,6 @@
     <t>celRefF</t>
   </si>
   <si>
-    <t>deptoRefF</t>
-  </si>
-  <si>
-    <t>ciudadRefF</t>
-  </si>
-  <si>
     <t>"10092369"</t>
   </si>
   <si>
@@ -1160,9 +1148,6 @@
     <t>"3204567894"</t>
   </si>
   <si>
-    <t>"Arauca"</t>
-  </si>
-  <si>
     <t>"juan"</t>
   </si>
   <si>
@@ -1181,12 +1166,6 @@
     <t>"3204047804"</t>
   </si>
   <si>
-    <t>"Amazonas"</t>
-  </si>
-  <si>
-    <t>"Leticia"</t>
-  </si>
-  <si>
     <t>Retanqueo</t>
   </si>
   <si>
@@ -1302,6 +1281,9 @@
   </si>
   <si>
     <t>"5000000"</t>
+  </si>
+  <si>
+    <t>decisionExcepcion</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CY2"/>
+  <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CP1" sqref="CP1:CQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1866,7 @@
     <col min="61" max="61" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2072,7 @@
         <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="BR1" t="s">
         <v>68</v>
@@ -2183,327 +2165,309 @@
         <v>97</v>
       </c>
       <c r="CV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI2" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BJ2" t="s">
         <v>142</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BK2" t="s">
         <v>143</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BL2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM2" t="s">
         <v>144</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BN2" t="s">
         <v>145</v>
       </c>
-      <c r="BI2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BO2" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BP2" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BQ2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR2" t="s">
         <v>148</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BS2" t="s">
         <v>149</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BT2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW2" t="s">
         <v>150</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>151</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BY2" t="s">
         <v>152</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BZ2" t="s">
         <v>153</v>
       </c>
-      <c r="BT2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CA2" t="s">
         <v>154</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CB2" t="s">
         <v>155</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CC2" t="s">
         <v>156</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CD2" t="s">
         <v>157</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CE2" t="s">
         <v>158</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CF2" t="s">
         <v>159</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CG2" t="s">
         <v>160</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CH2" t="s">
         <v>161</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CI2" t="s">
         <v>162</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CJ2" t="s">
         <v>163</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CK2" t="s">
         <v>164</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CL2" t="s">
         <v>165</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CM2" t="s">
         <v>166</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CN2" t="s">
         <v>167</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CO2" t="s">
         <v>168</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CP2" t="s">
         <v>169</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CQ2" t="s">
         <v>170</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CR2" t="s">
         <v>171</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CS2" t="s">
         <v>172</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CT2" t="s">
         <v>173</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>174</v>
       </c>
-      <c r="CS2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>177</v>
-      </c>
       <c r="CV2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2511,8 +2475,8 @@
     <hyperlink ref="G2" r:id="rId1" display="&quot;aalvarez@excelcredit.co&quot; " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2528,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2576,7 +2540,7 @@
         <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -2596,70 +2560,70 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>185</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="P2" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="S2" t="s">
         <v>191</v>
       </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>192</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>194</v>
-      </c>
-      <c r="P2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" t="s">
-        <v>198</v>
-      </c>
-      <c r="T2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2947,12 +2911,12 @@
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\digicredito-serenety-bdd\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869B3C8-6876-46DF-9286-5F59EC5E02A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F972A-9482-4DB6-B2D4-51B2FBCC1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,31 +39,1150 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Analista Desarrollo59</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Analista Desarrollo59:
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0BA3025B-8932-47EF-B868-3D18A3984231}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la pagaduría, debe estar escrita tal cual en Base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E07BDEE7-21AD-4825-B29A-F5E6540DAF5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{327ED54D-0AA6-47A4-80F2-A349331FF08D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{8972C0F9-2A79-42BC-84D2-0CB55EF1AAA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cedula del cliente
-*No debe contener puntos ni comas</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A80B5075-179C-4C5C-AA2F-2867FCB8FB15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el crédito;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8E379779-8C06-40E4-BB14-FBA84D835333}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{40656C1A-D310-4EEE-A950-70741D9BBE69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{D3E05E26-E4DA-41C9-B7D5-4D44FF4897A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{ABC388F8-6D0A-471C-A174-6F030837476F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E877FECE-3C80-4414-A60C-4D79459E5D4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{2E348E8D-CB43-4FD0-8DD5-EF591745AC51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se hará el desembolso del Crédito;
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato numérico
+*Dia menor a 10 inicia por Cero
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{1CBF56CA-848B-4CA7-BFA0-7152829BAD3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{33325253-05EE-4095-B2A1-CE99DA3F7C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo nombre del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{5BD47D30-8F4C-4875-B0D2-C9557D40E4CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{DF58FC07-5A90-4BE5-92AE-DFC7811C4E77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{17A857BE-5929-4EFE-A384-31E097739DB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{B19961A6-0AB7-456A-A444-90C1952F963F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oficina en que se solicita el crédito;
+*Debe estar escrita tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{AA96814D-4697-4925-BCFC-753D376497B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Actividad del Cliente;
+*Debe ser una de las opciones disponibles en base de datos
+*Debe estar escrito tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{0D918DF1-C7E1-4721-87C5-EC0A94DC825A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total suma de activos del Cliente;
+*No debe contener ni puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{05D45A51-F793-49E0-9E21-E77B3D48075F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{BDAB8747-B3B5-4EFA-91F4-E001A36B792C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de contrato del Cliente;
+*Tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{BE8E390B-CDAF-4AFD-AF1B-FF6F583CA09F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la que el Cliente inicio el tipo de contrato;
+*Formato de Fecha;
+DD/MM/AA
+*Mes en dígitos
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{5A9F3C3E-7208-449B-B81B-EC904F258374}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{A7B23BA2-333C-4864-9726-C59FA1983E0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{2A81DE8D-2372-4211-904B-9B17A0F114A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Departamento en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{61D3D0B1-EE75-4C9F-94B3-029E176C722D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ciudad en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{7D7A5B13-0D27-4D36-BBB4-D9053CB0F92E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{FA927EC2-AAC8-46D1-BC35-BEE500B2985E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Destino que se le dará al crédito solicitado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{6EFEE66E-208D-4A00-AE8C-DAEC026439FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genero del Cliente;
+*Formato, una sola letra;
+M -&gt; Masculino
+F -&gt; Femenino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{49F9E36B-2217-4502-B66D-D58F913051AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado civil del Cliente;
+*Según las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{9DF02097-36D8-492A-BBC4-CA6944119D5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dirección de residencia del Cliente;
+*Formato: Libre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{9ED62BA0-1103-4E28-9142-1C18F9B1C410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de vivienda en la que habita el solicitante;
+*Formato;
+Según las opciones disponibles del sistema
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{37C3BD82-BE8D-4E0C-A50F-AA118C86BF28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{94FF639A-3856-4148-807B-92C48BFF18BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer nombre de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{1F4FA594-BCCB-4642-BB4E-00FCFB847527}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico fijo de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{882793B1-D585-4F3C-87FD-F6A01A233A7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{DA57A17A-FF16-4E61-93D0-7380B15993BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{27CEC655-E00F-4EE1-A63B-00BBBE23160F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{7CB74C7C-95CD-4400-A6B2-C5A3A8C6DB92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{BA18E200-13B9-4906-8069-5658E1AA81CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{11D6F33B-7AD6-4BFE-BE34-E51F5F475ED3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{FCF694CC-0DD6-4123-8DDC-636BF453D8AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{B0211441-3A24-4A75-AC77-71A358F04566}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
+Fecha Actual
+*Formato;
+DD/MM/AA
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{0F91D90C-8989-4B87-8139-36E133F98076}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la primera cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{96F88B5C-79A8-4D53-B73D-2AEE442BF5AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
         </r>
       </text>
     </comment>
@@ -639,7 +1758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="319">
   <si>
     <t>Cedula</t>
   </si>
@@ -884,57 +2003,6 @@
     <t>NumRadicadoCredito</t>
   </si>
   <si>
-    <t>vinculo</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>tomarSeguroAP</t>
-  </si>
-  <si>
-    <t>nombresSeguroAP</t>
-  </si>
-  <si>
-    <t>parentescoSeguroAP</t>
-  </si>
-  <si>
-    <t>pNombreRefP</t>
-  </si>
-  <si>
-    <t>sNombreRefP</t>
-  </si>
-  <si>
-    <t>pApellidoRefP</t>
-  </si>
-  <si>
-    <t>sApellidoRefP</t>
-  </si>
-  <si>
-    <t>relacionRefP</t>
-  </si>
-  <si>
-    <t>celRefP</t>
-  </si>
-  <si>
-    <t>pNombreRefF</t>
-  </si>
-  <si>
-    <t>sNombreRefF</t>
-  </si>
-  <si>
-    <t>pApellidoRefF</t>
-  </si>
-  <si>
-    <t>sApellidoRefF</t>
-  </si>
-  <si>
-    <t>relacionRefF</t>
-  </si>
-  <si>
-    <t>celRefF</t>
-  </si>
-  <si>
     <t>"10092369"</t>
   </si>
   <si>
@@ -950,340 +2018,703 @@
     <t>"Entidad donde trabaja"</t>
   </si>
   <si>
-    <t>"20000000"</t>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"300000"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Estrato 1" </t>
+  </si>
+  <si>
+    <t>"Jefe de hogar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Universitario" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desprendible de nómina" </t>
+  </si>
+  <si>
+    <t>"AAA"</t>
+  </si>
+  <si>
+    <t>"colombia"</t>
+  </si>
+  <si>
+    <t>"colombiano"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ingeniero" </t>
+  </si>
+  <si>
+    <t>"24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2"   </t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>"pension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"123456"  </t>
+  </si>
+  <si>
+    <t>"30/12/2022"</t>
+  </si>
+  <si>
+    <t>"123456"</t>
+  </si>
+  <si>
+    <t>"Certificación laboral"</t>
+  </si>
+  <si>
+    <t>"CEO"</t>
+  </si>
+  <si>
+    <t>"Luis Perez Ramirez"</t>
+  </si>
+  <si>
+    <t>"1234567890"</t>
+  </si>
+  <si>
+    <t>"No"</t>
+  </si>
+  <si>
+    <t>"Importaciones"</t>
+  </si>
+  <si>
+    <t>"Santander"</t>
+  </si>
+  <si>
+    <t>"966855"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Inversiones en oro" </t>
+  </si>
+  <si>
+    <t>"Alemania"</t>
+  </si>
+  <si>
+    <t>"8500"</t>
+  </si>
+  <si>
+    <t>"Euros"</t>
+  </si>
+  <si>
+    <t>"12/12/2008"</t>
+  </si>
+  <si>
+    <t>"Febrero"</t>
+  </si>
+  <si>
+    <t>"20/07/1963"</t>
+  </si>
+  <si>
+    <t>"2022"</t>
+  </si>
+  <si>
+    <t>"Efectivo"</t>
+  </si>
+  <si>
+    <t>"16/02/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t>"Vinculado"</t>
+  </si>
+  <si>
+    <t>"Plan 1"</t>
+  </si>
+  <si>
+    <t>"Juli Macias"</t>
+  </si>
+  <si>
+    <t>"Prima"</t>
+  </si>
+  <si>
+    <t>"maria"</t>
+  </si>
+  <si>
+    <t>"camila"</t>
+  </si>
+  <si>
+    <t>"lopez"</t>
+  </si>
+  <si>
+    <t>"cardenas"</t>
+  </si>
+  <si>
+    <t>"Amigo"</t>
+  </si>
+  <si>
+    <t>"3204567894"</t>
+  </si>
+  <si>
+    <t>"juan"</t>
+  </si>
+  <si>
+    <t>"david"</t>
+  </si>
+  <si>
+    <t>"reyes"</t>
+  </si>
+  <si>
+    <t>"sanchez"</t>
+  </si>
+  <si>
+    <t>"Hijo"</t>
+  </si>
+  <si>
+    <t>"3204047804"</t>
+  </si>
+  <si>
+    <t>Retanqueo</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>"7500000"</t>
+  </si>
+  <si>
+    <t>"68003"</t>
+  </si>
+  <si>
+    <t>"src/test/resources/Data/PDFPRUEBA.pdf"</t>
+  </si>
+  <si>
+    <t>"1.80"</t>
+  </si>
+  <si>
+    <t>"50"</t>
+  </si>
+  <si>
+    <t>"8700000"</t>
+  </si>
+  <si>
+    <t>"250000"</t>
+  </si>
+  <si>
+    <t>"2258"</t>
+  </si>
+  <si>
+    <t>"OSCAR"</t>
+  </si>
+  <si>
+    <t>"Octubre"</t>
+  </si>
+  <si>
+    <t>"14/06/1969"</t>
+  </si>
+  <si>
+    <t>"2021"</t>
+  </si>
+  <si>
+    <t>"3115128152"</t>
+  </si>
+  <si>
+    <t>"dandresabogadog@mail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Efectivo" </t>
+  </si>
+  <si>
+    <t>"20/10/2021"</t>
+  </si>
+  <si>
+    <t>"Remanentes - 60237038927 - REMANENTE"</t>
+  </si>
+  <si>
+    <t>"86292"</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
+  </si>
+  <si>
+    <t>"15/02/1956"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"06/08/1976" </t>
+  </si>
+  <si>
+    <t>"Berlin"</t>
+  </si>
+  <si>
+    <t>"5000000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pagaduria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DiasHabilesIntereses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ingresos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descLey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descNomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mes      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaDesembolso </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> primerNombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segundoNombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> primerApellido </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segundoApellido </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaActual   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oficinaAsesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actividad    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TotalActivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vlrCompasSaneamientos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoContrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FechaIngreso </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celular      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> departamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciudad      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rutaPDF                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DestinoCredito     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> genero </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EstadoCivil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoVivienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PapellidoReferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PnombreReferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TelefonoResidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TelefonoTrabajo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnoAnalisis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoDesen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banco                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AccountingSource   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AccountingName                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FechaRegistro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cartera1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saneamiento2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credito </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombresApellidos           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contacto                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lineaCredito                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estadoActual </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> codigo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaExpedicion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estrado     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> claseVivienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> posicionHogar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nivelEscolaridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cuotaHipotecaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoDocNomina            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> otrosIngresos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modalidadDesembolso      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoCliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paisNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lugarDeNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nacionalidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profesion   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mesesResidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numeroHijos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> personasACargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoPension </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> codigoProgramaNomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaTerminacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nitAfiliacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoDocumento           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombreBeneficario    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> documentoBeneficiario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celularBeneficiario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> monedaExtranjera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoTransanccion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> productoBancario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banco       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numProducto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoProducto         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pais       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciudadExt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> monto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moneda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> funcionarioPublico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recursosPublicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expuestoPoliticamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaExpuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mes       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fecha        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnnoAfetacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaActual  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banco                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vinculo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plan     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tomarSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombresSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parentescoSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pNombreRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sNombreRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pApellidoRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sApellidoRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relacionRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celRefP       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pNombreRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sNombreRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pApellidoRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sApellidoRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relacionRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celRefF      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> decisionExcepcion </t>
+  </si>
+  <si>
+    <t>"COLFONDOS"</t>
+  </si>
+  <si>
+    <t>"52912399"</t>
+  </si>
+  <si>
+    <t>"8500000"</t>
+  </si>
+  <si>
+    <t>"Noviembre"</t>
+  </si>
+  <si>
+    <t>"05/10/2021"</t>
+  </si>
+  <si>
+    <t>"ALEYDA"</t>
+  </si>
+  <si>
+    <t>"RODRIGUEZ"</t>
+  </si>
+  <si>
+    <t>"GONZALEZ"</t>
+  </si>
+  <si>
+    <t>"25/Nov/2021"</t>
+  </si>
+  <si>
+    <t>"20500000"</t>
+  </si>
+  <si>
+    <t>"Jubilados"</t>
+  </si>
+  <si>
+    <t>"10/03/2000"</t>
+  </si>
+  <si>
+    <t>"prueba123@gmail.com"</t>
+  </si>
+  <si>
+    <t>"3125127717"</t>
+  </si>
+  <si>
+    <t>"Cundinamarca"</t>
+  </si>
+  <si>
+    <t>"Anapoima"</t>
+  </si>
+  <si>
+    <t>"Educacion propia"</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t>"Calle 2d #22-52"</t>
+  </si>
+  <si>
+    <t>"perez"</t>
+  </si>
+  <si>
+    <t>"alejandro"</t>
+  </si>
+  <si>
+    <t>"7210273"</t>
+  </si>
+  <si>
+    <t>"9007146"</t>
+  </si>
+  <si>
+    <t>"3112"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"'ACRED','EGRESO'" </t>
+  </si>
+  <si>
+    <t>"upper('Desembolso egreso'), upper('Desembolso activación de crédito')"</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>"86313"</t>
+  </si>
+  <si>
+    <t>"Casa"</t>
+  </si>
+  <si>
+    <t>"ALEYDA RODRIGUEZ GONZALEZ"</t>
   </si>
   <si>
     <t>"1.70"</t>
   </si>
   <si>
-    <t>"60"</t>
-  </si>
-  <si>
-    <t>"100"</t>
-  </si>
-  <si>
-    <t>"260000"</t>
-  </si>
-  <si>
-    <t>"100000"</t>
-  </si>
-  <si>
-    <t>"5500000"</t>
-  </si>
-  <si>
-    <t>"300000"</t>
-  </si>
-  <si>
-    <t>"Retanqueo compra de cartera"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"12345"</t>
-  </si>
-  <si>
-    <t>"F"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Estrato 1" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Arriendo" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Casa" </t>
-  </si>
-  <si>
-    <t>"Jefe de hogar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Universitario" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Desprendible de nómina" </t>
-  </si>
-  <si>
-    <t>"AAA"</t>
-  </si>
-  <si>
-    <t>"colombia"</t>
-  </si>
-  <si>
-    <t>"colombiano"</t>
+    <t>"Arriendo"</t>
   </si>
   <si>
     <t>"Soltera/o"</t>
   </si>
   <si>
-    <t xml:space="preserve">"ingeniero" </t>
-  </si>
-  <si>
-    <t>"Antioquia"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Abejorral" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cra 14 No. 93a - 30" </t>
-  </si>
-  <si>
-    <t>"24"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2"   </t>
-  </si>
-  <si>
-    <t>"0"</t>
-  </si>
-  <si>
-    <t>"pension"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"123456"  </t>
-  </si>
-  <si>
-    <t>"01/01/2015"</t>
-  </si>
-  <si>
-    <t>"30/12/2022"</t>
-  </si>
-  <si>
-    <t>"123456"</t>
-  </si>
-  <si>
-    <t>"Certificación laboral"</t>
-  </si>
-  <si>
-    <t>"CEO"</t>
-  </si>
-  <si>
-    <t>"Luis Perez Ramirez"</t>
-  </si>
-  <si>
-    <t>"1234567890"</t>
-  </si>
-  <si>
-    <t>"No"</t>
-  </si>
-  <si>
-    <t>"Importaciones"</t>
-  </si>
-  <si>
-    <t>"Santander"</t>
-  </si>
-  <si>
-    <t>"966855"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Inversiones en oro" </t>
-  </si>
-  <si>
-    <t>"Alemania"</t>
-  </si>
-  <si>
-    <t>"8500"</t>
-  </si>
-  <si>
-    <t>"Euros"</t>
-  </si>
-  <si>
-    <t>"12/12/2008"</t>
-  </si>
-  <si>
-    <t>"Febrero"</t>
-  </si>
-  <si>
-    <t>"20/07/1963"</t>
-  </si>
-  <si>
-    <t>"2022"</t>
-  </si>
-  <si>
-    <t>"Efectivo"</t>
-  </si>
-  <si>
-    <t>"16/02/2022"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>"Vinculado"</t>
-  </si>
-  <si>
-    <t>"Plan 1"</t>
-  </si>
-  <si>
-    <t>"Si"</t>
-  </si>
-  <si>
-    <t>"Juli Macias"</t>
-  </si>
-  <si>
-    <t>"Prima"</t>
-  </si>
-  <si>
-    <t>"maria"</t>
-  </si>
-  <si>
-    <t>"camila"</t>
-  </si>
-  <si>
-    <t>"lopez"</t>
-  </si>
-  <si>
-    <t>"cardenas"</t>
-  </si>
-  <si>
-    <t>"Amigo"</t>
-  </si>
-  <si>
-    <t>"3204567894"</t>
-  </si>
-  <si>
-    <t>"juan"</t>
-  </si>
-  <si>
-    <t>"david"</t>
-  </si>
-  <si>
-    <t>"reyes"</t>
-  </si>
-  <si>
-    <t>"sanchez"</t>
-  </si>
-  <si>
-    <t>"Hijo"</t>
-  </si>
-  <si>
-    <t>"3204047804"</t>
-  </si>
-  <si>
-    <t>Retanqueo</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>"7500000"</t>
-  </si>
-  <si>
-    <t>"68003"</t>
-  </si>
-  <si>
-    <t>"src/test/resources/Data/PDFPRUEBA.pdf"</t>
-  </si>
-  <si>
-    <t>"1.80"</t>
-  </si>
-  <si>
-    <t>"50"</t>
-  </si>
-  <si>
-    <t>"8700000"</t>
-  </si>
-  <si>
-    <t>"250000"</t>
-  </si>
-  <si>
-    <t>"2258"</t>
-  </si>
-  <si>
-    <t>"OSCAR"</t>
-  </si>
-  <si>
-    <t>"Octubre"</t>
-  </si>
-  <si>
-    <t>"14/06/1969"</t>
-  </si>
-  <si>
-    <t>"2021"</t>
-  </si>
-  <si>
-    <t>"3115128152"</t>
-  </si>
-  <si>
-    <t>"dandresabogadog@mail.com"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Efectivo" </t>
-  </si>
-  <si>
-    <t>"20/10/2021"</t>
-  </si>
-  <si>
-    <t>"Remanentes - 60237038927 - REMANENTE"</t>
-  </si>
-  <si>
-    <t>"86292"</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>|Cedula|Credito|oficinaAsesor|nombresApellidos|fechaNacimiento|celular|Correo|actividad|pagaduria|Contacto|montoSolicitado|Tasa|Plazo|DiasHabilesIntereses|descNomina|descLey|Ingresos|VlrCompraSaneamiento|lineaCredito|rutaPDF|estadoActual|page|codigo|primerNombre|segundoNombre|primerApellido|segundoApellido|NombreCredito|fechaExpedicion|genero|estrado|tipoVivienda|claseVivienda|posicionHogar|nivelEscolaridad|cuotaHipotecaria|tipoDocNomina|otrosIngresos|modalidadDesembolso|tipoCliente|paisNacimiento|lugarDeNacimiento|nacionalidad|estadoCivil|profesion|departamento|ciudad|direccionResidencia|mesesResidencia|numeroHijos|personasACargo|tipoPension|codigoProgramaNomina|fechaIngreso|fechaTerminacion|nitAfiliacion|tipoDocumento|cargo|nombreBeneficario|documentoBeneficiario|celularBeneficiario|monedaExtranjera|tipoTransanccion|productoBancario|banco|numProducto|tipoProducto|pais|ciudad|monto|moneda|funcionarioPublico|recursosPublicos|expuestoPoliticamente|fechaExpuesto|Mes|fecha|AnnoAfetacion|TipoDesen|fechaActual|Banco|NumRadicadoCredito|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
-  </si>
-  <si>
-    <t>"15/02/1956"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"06/08/1976" </t>
-  </si>
-  <si>
-    <t>"Berlin"</t>
-  </si>
-  <si>
-    <t>ciudadExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"thainer.perez@gmail.com"  </t>
-  </si>
-  <si>
-    <t>"3133421083"</t>
-  </si>
-  <si>
-    <t>"P.A COLPENSIONES"</t>
-  </si>
-  <si>
-    <t>"DELIO ARNULFO ROJAS GUIO"</t>
-  </si>
-  <si>
-    <t>"5744075"</t>
-  </si>
-  <si>
-    <t>"81768"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ROJAS" </t>
-  </si>
-  <si>
-    <t>"GUIO"</t>
-  </si>
-  <si>
-    <t>"DELIO"</t>
-  </si>
-  <si>
-    <t>"ARNULFO"</t>
-  </si>
-  <si>
-    <t>"DELIO ARNULFO"</t>
-  </si>
-  <si>
-    <t>"5000000"</t>
-  </si>
-  <si>
-    <t>decisionExcepcion</t>
+    <t>NumRadicacion</t>
+  </si>
+  <si>
+    <t>"92840"</t>
+  </si>
+  <si>
+    <t>tipocontratoAbacus</t>
+  </si>
+  <si>
+    <t>"Pensionado por Invalidez"</t>
+  </si>
+  <si>
+    <t>"Compra de cartera"</t>
+  </si>
+  <si>
+    <t>"600000"</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +2724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1329,8 +2760,35 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,8 +2809,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1365,15 +2827,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1382,14 +2845,230 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1798,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV2"/>
+  <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CP1" sqref="CP1:CQ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +3499,7 @@
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
     <col min="19" max="19" width="29.140625" customWidth="1"/>
     <col min="20" max="20" width="39.7109375" customWidth="1"/>
@@ -1852,627 +3531,794 @@
     <col min="47" max="47" width="16.5703125" customWidth="1"/>
     <col min="48" max="48" width="19.140625" customWidth="1"/>
     <col min="49" max="49" width="16.42578125" customWidth="1"/>
-    <col min="50" max="50" width="12.42578125" customWidth="1"/>
-    <col min="51" max="51" width="15.28515625" customWidth="1"/>
-    <col min="52" max="52" width="11.7109375" customWidth="1"/>
-    <col min="53" max="53" width="22.5703125" customWidth="1"/>
-    <col min="54" max="54" width="12.42578125" customWidth="1"/>
-    <col min="55" max="55" width="17" customWidth="1"/>
-    <col min="56" max="56" width="11.85546875" customWidth="1"/>
-    <col min="57" max="57" width="20.5703125" customWidth="1"/>
-    <col min="58" max="58" width="6.28515625" customWidth="1"/>
-    <col min="59" max="59" width="19.28515625" customWidth="1"/>
-    <col min="60" max="60" width="22.140625" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" customWidth="1"/>
+    <col min="50" max="50" width="15.28515625" customWidth="1"/>
+    <col min="51" max="51" width="11.7109375" customWidth="1"/>
+    <col min="52" max="52" width="22.5703125" customWidth="1"/>
+    <col min="53" max="53" width="12.42578125" customWidth="1"/>
+    <col min="54" max="54" width="17" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" customWidth="1"/>
+    <col min="56" max="56" width="20.5703125" customWidth="1"/>
+    <col min="57" max="57" width="6.28515625" customWidth="1"/>
+    <col min="58" max="58" width="19.28515625" customWidth="1"/>
+    <col min="59" max="59" width="22.140625" customWidth="1"/>
+    <col min="60" max="60" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" t="s">
+        <v>187</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>28</v>
+        <v>191</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>193</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="AW1" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="AX1" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="AY1" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="BA1" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="BB1" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="BD1" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="BE1" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="BF1" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="BG1" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="BH1" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="BI1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="BJ1" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="BK1" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="BL1" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="BM1" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="BN1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="BO1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="BP1" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="BQ1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="BT1" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="BU1" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="BW1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
+        <v>238</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>239</v>
       </c>
       <c r="BY1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
+        <v>240</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>241</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="CF1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>270</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="P2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="R2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="CB2" t="s">
         <v>109</v>
       </c>
-      <c r="R2" t="s">
+      <c r="CC2" t="s">
         <v>110</v>
       </c>
-      <c r="S2" t="s">
+      <c r="CD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" t="s">
+      <c r="CF2" t="s">
         <v>112</v>
       </c>
-      <c r="U2" t="s">
+      <c r="CG2" t="s">
         <v>113</v>
       </c>
-      <c r="V2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="CH2" t="s">
         <v>114</v>
       </c>
-      <c r="X2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="CI2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="CK2" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="CL2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO2" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="CP2" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="CQ2" t="s">
         <v>119</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="CR2" t="s">
         <v>120</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CS2" t="s">
         <v>122</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="CT2" t="s">
         <v>123</v>
       </c>
-      <c r="AP2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="CU2" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="CV2" t="s">
         <v>125</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="CW2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX2" t="s">
         <v>126</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="CY2" t="s">
         <v>127</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="CZ2" t="s">
         <v>128</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="DA2" t="s">
         <v>129</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="DB2" t="s">
         <v>130</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="DC2" t="s">
         <v>131</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="DD2" t="s">
         <v>132</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="DE2" t="s">
         <v>133</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="DF2" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="DG2" t="s">
         <v>135</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="DH2" t="s">
         <v>136</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="DI2" t="s">
         <v>137</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="DJ2" t="s">
         <v>138</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="DK2" t="s">
         <v>139</v>
       </c>
-      <c r="BG2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>154</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>168</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>169</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>173</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>142</v>
+      <c r="DL2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>314</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="CU2:DL2 CB2 BY2 DN2:XFD2">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K2">
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N2">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:T2">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V2">
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AB2">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AE2">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AG2">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AL2">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AP2">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AS2">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM2">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="&quot;aalvarez@excelcredit.co&quot; " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W2" r:id="rId1" display="prueba321@gmail.com" xr:uid="{58CDCEF2-A8CC-4FFD-BDBE-936DD56C4690}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2492,7 +4338,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2540,7 +4386,7 @@
         <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -2560,70 +4406,70 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>184</v>
+        <v>100</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="S2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="T2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>193</v>
+        <v>157</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="V2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2911,12 +4757,12 @@
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F972A-9482-4DB6-B2D4-51B2FBCC1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28F4CB-CAB8-4C65-9932-AD952817C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="320">
   <si>
     <t>Cedula</t>
   </si>
@@ -2369,9 +2369,6 @@
     <t xml:space="preserve"> TipoDesen  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Banco                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> AccountingSource   </t>
   </si>
   <si>
@@ -2498,9 +2495,6 @@
     <t xml:space="preserve"> productoBancario </t>
   </si>
   <si>
-    <t xml:space="preserve"> banco       </t>
-  </si>
-  <si>
     <t xml:space="preserve"> numProducto </t>
   </si>
   <si>
@@ -2600,121 +2594,130 @@
     <t xml:space="preserve"> decisionExcepcion </t>
   </si>
   <si>
+    <t>"8500000"</t>
+  </si>
+  <si>
+    <t>"20500000"</t>
+  </si>
+  <si>
+    <t>"Jubilados"</t>
+  </si>
+  <si>
+    <t>"10/03/2000"</t>
+  </si>
+  <si>
+    <t>"Cundinamarca"</t>
+  </si>
+  <si>
+    <t>"Anapoima"</t>
+  </si>
+  <si>
+    <t>"Educacion propia"</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t>"Calle 2d #22-52"</t>
+  </si>
+  <si>
+    <t>"perez"</t>
+  </si>
+  <si>
+    <t>"alejandro"</t>
+  </si>
+  <si>
+    <t>"7210273"</t>
+  </si>
+  <si>
+    <t>"9007146"</t>
+  </si>
+  <si>
+    <t>"3112"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"'ACRED','EGRESO'" </t>
+  </si>
+  <si>
+    <t>"upper('Desembolso egreso'), upper('Desembolso activación de crédito')"</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>"Casa"</t>
+  </si>
+  <si>
+    <t>"1.70"</t>
+  </si>
+  <si>
+    <t>"Arriendo"</t>
+  </si>
+  <si>
+    <t>"Soltera/o"</t>
+  </si>
+  <si>
+    <t>NumRadicacion</t>
+  </si>
+  <si>
+    <t>"92840"</t>
+  </si>
+  <si>
+    <t>tipocontratoAbacus</t>
+  </si>
+  <si>
+    <t>"Pensionado por Invalidez"</t>
+  </si>
+  <si>
+    <t>"Marzo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"daabogadog@hotmail.com" </t>
+  </si>
+  <si>
+    <t>"3142739038"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bancoInt       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banco                             </t>
+  </si>
+  <si>
+    <t>"50500000"</t>
+  </si>
+  <si>
     <t>"COLFONDOS"</t>
   </si>
   <si>
-    <t>"52912399"</t>
-  </si>
-  <si>
-    <t>"8500000"</t>
-  </si>
-  <si>
-    <t>"Noviembre"</t>
-  </si>
-  <si>
-    <t>"05/10/2021"</t>
-  </si>
-  <si>
-    <t>"ALEYDA"</t>
-  </si>
-  <si>
-    <t>"RODRIGUEZ"</t>
-  </si>
-  <si>
-    <t>"GONZALEZ"</t>
-  </si>
-  <si>
-    <t>"25/Nov/2021"</t>
-  </si>
-  <si>
-    <t>"20500000"</t>
-  </si>
-  <si>
-    <t>"Jubilados"</t>
-  </si>
-  <si>
-    <t>"10/03/2000"</t>
-  </si>
-  <si>
-    <t>"prueba123@gmail.com"</t>
-  </si>
-  <si>
-    <t>"3125127717"</t>
-  </si>
-  <si>
-    <t>"Cundinamarca"</t>
-  </si>
-  <si>
-    <t>"Anapoima"</t>
-  </si>
-  <si>
-    <t>"Educacion propia"</t>
-  </si>
-  <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t>"Calle 2d #22-52"</t>
-  </si>
-  <si>
-    <t>"perez"</t>
-  </si>
-  <si>
-    <t>"alejandro"</t>
-  </si>
-  <si>
-    <t>"7210273"</t>
-  </si>
-  <si>
-    <t>"9007146"</t>
-  </si>
-  <si>
-    <t>"3112"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"'ACRED','EGRESO'" </t>
-  </si>
-  <si>
-    <t>"upper('Desembolso egreso'), upper('Desembolso activación de crédito')"</t>
-  </si>
-  <si>
-    <t>29/10/2021</t>
-  </si>
-  <si>
-    <t>"86313"</t>
-  </si>
-  <si>
-    <t>"Casa"</t>
-  </si>
-  <si>
-    <t>"ALEYDA RODRIGUEZ GONZALEZ"</t>
-  </si>
-  <si>
-    <t>"1.70"</t>
-  </si>
-  <si>
-    <t>"Arriendo"</t>
-  </si>
-  <si>
-    <t>"Soltera/o"</t>
-  </si>
-  <si>
-    <t>NumRadicacion</t>
-  </si>
-  <si>
-    <t>"92840"</t>
-  </si>
-  <si>
-    <t>tipocontratoAbacus</t>
-  </si>
-  <si>
-    <t>"Pensionado por Invalidez"</t>
-  </si>
-  <si>
-    <t>"Compra de cartera"</t>
-  </si>
-  <si>
-    <t>"600000"</t>
+    <t>"5744075"</t>
+  </si>
+  <si>
+    <t>"DELIO"</t>
+  </si>
+  <si>
+    <t>"ARNULFO"</t>
+  </si>
+  <si>
+    <t>"ROJAS"</t>
+  </si>
+  <si>
+    <t>"GUIO"</t>
+  </si>
+  <si>
+    <t>"81768"</t>
+  </si>
+  <si>
+    <t>"DELIO ARNULFO ROJAS GUIO"</t>
+  </si>
+  <si>
+    <t>"Retanqueo compra de cartera"</t>
+  </si>
+  <si>
+    <t>"14/03/2022"</t>
+  </si>
+  <si>
+    <t>"14/Mar/2022"</t>
   </si>
 </sst>
 </file>
@@ -2848,9 +2851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2860,6 +2860,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3479,12 +3480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
@@ -3494,8 +3496,8 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
@@ -3504,7 +3506,7 @@
     <col min="19" max="19" width="29.140625" customWidth="1"/>
     <col min="20" max="20" width="39.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
     <col min="23" max="23" width="7.7109375" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="15.85546875" customWidth="1"/>
@@ -3663,264 +3665,264 @@
         <v>202</v>
       </c>
       <c r="AN1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO1" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>204</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>206</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>207</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>208</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>209</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>210</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>211</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>212</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>213</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>214</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>216</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>217</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>218</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>219</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>220</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>221</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>222</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>223</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>224</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>225</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>226</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>227</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>228</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>229</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>230</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>231</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>232</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>233</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>234</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>235</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>236</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>237</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>238</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>239</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>240</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>241</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>242</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>243</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>244</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CF1" t="s">
         <v>245</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>246</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>247</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>248</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>249</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>250</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>251</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>252</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>253</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>254</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>255</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>256</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>257</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>258</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>259</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>260</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>261</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>262</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>263</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>264</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>265</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>266</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>267</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>268</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>269</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>270</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>271</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>272</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>273</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>274</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>275</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>276</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>277</v>
       </c>
-      <c r="DK1" t="s">
-        <v>278</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>279</v>
-      </c>
       <c r="DM1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="DN1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>146</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>148</v>
@@ -3929,25 +3931,25 @@
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>82</v>
@@ -3956,93 +3958,93 @@
         <v>84</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>144</v>
       </c>
       <c r="AB2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AC2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF2" t="s">
         <v>297</v>
       </c>
-      <c r="AD2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>311</v>
-      </c>
       <c r="AG2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AH2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AI2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AJ2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>303</v>
+        <v>290</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="AL2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="s">
         <v>121</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>306</v>
+      <c r="AO2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="AR2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS2" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="AS2" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="AT2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AU2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV2" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV2" s="11" t="s">
         <v>163</v>
       </c>
       <c r="AW2" t="s">
@@ -4067,7 +4069,7 @@
         <v>90</v>
       </c>
       <c r="BD2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="BE2" t="s">
         <v>91</v>
@@ -4250,10 +4252,10 @@
         <v>109</v>
       </c>
       <c r="DM2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="DN2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4318,7 +4320,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" display="prueba321@gmail.com" xr:uid="{58CDCEF2-A8CC-4FFD-BDBE-936DD56C4690}"/>
+    <hyperlink ref="W2" r:id="rId1" display="prueba123@gmail.com" xr:uid="{58CDCEF2-A8CC-4FFD-BDBE-936DD56C4690}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4331,7 +4333,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28F4CB-CAB8-4C65-9932-AD952817C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC27456-CE98-4649-B9CE-11C04DE919E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
@@ -2675,9 +2675,6 @@
     <t xml:space="preserve">"daabogadog@hotmail.com" </t>
   </si>
   <si>
-    <t>"3142739038"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> bancoInt       </t>
   </si>
   <si>
@@ -2690,34 +2687,37 @@
     <t>"COLFONDOS"</t>
   </si>
   <si>
-    <t>"5744075"</t>
-  </si>
-  <si>
-    <t>"DELIO"</t>
-  </si>
-  <si>
-    <t>"ARNULFO"</t>
-  </si>
-  <si>
-    <t>"ROJAS"</t>
-  </si>
-  <si>
     <t>"GUIO"</t>
   </si>
   <si>
     <t>"81768"</t>
   </si>
   <si>
-    <t>"DELIO ARNULFO ROJAS GUIO"</t>
-  </si>
-  <si>
-    <t>"Retanqueo compra de cartera"</t>
-  </si>
-  <si>
     <t>"14/03/2022"</t>
   </si>
   <si>
     <t>"14/Mar/2022"</t>
+  </si>
+  <si>
+    <t>"98466617"</t>
+  </si>
+  <si>
+    <t>"CARLOS"</t>
+  </si>
+  <si>
+    <t>"EDUARDO"</t>
+  </si>
+  <si>
+    <t>"FERIA"</t>
+  </si>
+  <si>
+    <t>"CARLOS EDUARDO FERIA"</t>
+  </si>
+  <si>
+    <t>"Libre inversion"</t>
+  </si>
+  <si>
+    <t>"3132739036"</t>
   </si>
 </sst>
 </file>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,7 +3665,7 @@
         <v>202</v>
       </c>
       <c r="AN1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AO1" t="s">
         <v>203</v>
@@ -3794,7 +3794,7 @@
         <v>244</v>
       </c>
       <c r="CE1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CF1" t="s">
         <v>245</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>296</v>
@@ -3916,7 +3916,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>146</v>
@@ -3934,22 +3934,22 @@
         <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" t="s">
         <v>312</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="P2" t="s">
-        <v>319</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>82</v>
@@ -3961,7 +3961,7 @@
         <v>279</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>280</v>
@@ -3973,7 +3973,7 @@
         <v>304</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>282</v>
@@ -4039,10 +4039,10 @@
         <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AU2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AV2" s="11" t="s">
         <v>163</v>
@@ -4051,7 +4051,7 @@
         <v>85</v>
       </c>
       <c r="AX2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AY2" t="s">
         <v>88</v>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC27456-CE98-4649-B9CE-11C04DE919E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96BDBF-C488-4EDA-9A4E-BDB75215860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2672,9 +2672,6 @@
     <t>"Marzo"</t>
   </si>
   <si>
-    <t xml:space="preserve">"daabogadog@hotmail.com" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> bancoInt       </t>
   </si>
   <si>
@@ -2684,9 +2681,6 @@
     <t>"50500000"</t>
   </si>
   <si>
-    <t>"COLFONDOS"</t>
-  </si>
-  <si>
     <t>"GUIO"</t>
   </si>
   <si>
@@ -2699,25 +2693,31 @@
     <t>"14/Mar/2022"</t>
   </si>
   <si>
-    <t>"98466617"</t>
-  </si>
-  <si>
-    <t>"CARLOS"</t>
-  </si>
-  <si>
-    <t>"EDUARDO"</t>
-  </si>
-  <si>
-    <t>"FERIA"</t>
-  </si>
-  <si>
-    <t>"CARLOS EDUARDO FERIA"</t>
-  </si>
-  <si>
     <t>"Libre inversion"</t>
   </si>
   <si>
-    <t>"3132739036"</t>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"5744075"</t>
+  </si>
+  <si>
+    <t>"DELIO"</t>
+  </si>
+  <si>
+    <t>"ARNULFO"</t>
+  </si>
+  <si>
+    <t>"ROJAS"</t>
+  </si>
+  <si>
+    <t>"DELIO ARNULFO ROJAS GUIO"</t>
+  </si>
+  <si>
+    <t>"3115139036"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"daabogadog@gmail.com" </t>
   </si>
 </sst>
 </file>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,7 +3665,7 @@
         <v>202</v>
       </c>
       <c r="AN1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AO1" t="s">
         <v>203</v>
@@ -3794,7 +3794,7 @@
         <v>244</v>
       </c>
       <c r="CE1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CF1" t="s">
         <v>245</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>313</v>
@@ -3916,7 +3916,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>146</v>
@@ -3934,7 +3934,7 @@
         <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>314</v>
@@ -3946,10 +3946,10 @@
         <v>316</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>82</v>
@@ -3970,10 +3970,10 @@
         <v>281</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>282</v>
@@ -4039,7 +4039,7 @@
         <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AU2" t="s">
         <v>317</v>
@@ -4051,7 +4051,7 @@
         <v>85</v>
       </c>
       <c r="AX2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AY2" t="s">
         <v>88</v>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96BDBF-C488-4EDA-9A4E-BDB75215860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF6050-8BBB-4A31-AB60-A4C3EA9A2D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="324">
   <si>
     <t>Cedula</t>
   </si>
@@ -2681,43 +2681,55 @@
     <t>"50500000"</t>
   </si>
   <si>
-    <t>"GUIO"</t>
-  </si>
-  <si>
     <t>"81768"</t>
   </si>
   <si>
     <t>"14/03/2022"</t>
   </si>
   <si>
-    <t>"14/Mar/2022"</t>
-  </si>
-  <si>
-    <t>"Libre inversion"</t>
-  </si>
-  <si>
     <t>"P.A COLPENSIONES"</t>
   </si>
   <si>
-    <t>"5744075"</t>
-  </si>
-  <si>
-    <t>"DELIO"</t>
-  </si>
-  <si>
-    <t>"ARNULFO"</t>
-  </si>
-  <si>
-    <t>"ROJAS"</t>
-  </si>
-  <si>
     <t>"DELIO ARNULFO ROJAS GUIO"</t>
   </si>
   <si>
-    <t>"3115139036"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"daabogadog@gmail.com" </t>
+    <t>"18/Mar/2022"</t>
+  </si>
+  <si>
+    <t>"500000"</t>
+  </si>
+  <si>
+    <t>"Compra de cartera"</t>
+  </si>
+  <si>
+    <t>"16"</t>
+  </si>
+  <si>
+    <t>"90"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"lespitiameza@gmail.com" </t>
+  </si>
+  <si>
+    <t>"3219176522"</t>
+  </si>
+  <si>
+    <t>"3994518"</t>
+  </si>
+  <si>
+    <t>"SERGIO"</t>
+  </si>
+  <si>
+    <t>"SEGUNDO"</t>
+  </si>
+  <si>
+    <t>"URZOLA"</t>
+  </si>
+  <si>
+    <t>"BERTEL"</t>
+  </si>
+  <si>
+    <t>"Si"</t>
   </si>
 </sst>
 </file>
@@ -3480,14 +3492,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CW9" sqref="CW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -3500,7 +3512,7 @@
     <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" customWidth="1"/>
     <col min="19" max="19" width="29.140625" customWidth="1"/>
@@ -3904,22 +3916,22 @@
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>296</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>314</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>278</v>
@@ -3934,22 +3946,22 @@
         <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>82</v>
@@ -3961,7 +3973,7 @@
         <v>279</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>280</v>
@@ -3970,10 +3982,10 @@
         <v>281</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>282</v>
@@ -4039,10 +4051,10 @@
         <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AU2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AV2" s="11" t="s">
         <v>163</v>
@@ -4051,7 +4063,7 @@
         <v>85</v>
       </c>
       <c r="AX2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AY2" t="s">
         <v>88</v>
@@ -4204,7 +4216,7 @@
         <v>125</v>
       </c>
       <c r="CW2" t="s">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="CX2" t="s">
         <v>126</v>

--- a/src/test/resources/data/AutomationData.xlsx
+++ b/src/test/resources/data/AutomationData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\DigicreditoSerenity BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19613A-ACC9-464F-898D-942C22929D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE74C4A-0F74-433C-AF8C-6E81E2805278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataDigicredito" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Monto solicitado para el Retanqueo;
 *No debe contener puntos ni comas</t>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cedula del cliente
 *No debe contener puntos ni comas</t>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
 Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
@@ -135,7 +135,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
 *Verificar su existencia antes de lanzar una prueba</t>
@@ -160,7 +160,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tasa del Crédito;
 *Debe siempre estar a dos decimales.
@@ -187,7 +187,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Plazo en meses del crédito
 </t>
@@ -212,7 +212,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Días hábiles de intereses iniciales</t>
         </r>
@@ -236,7 +236,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ingresos del cliente;
 *Debe estar sin puntos ni comas</t>
@@ -261,7 +261,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Descuentos de Ley;
 *Sin puntos ni comas</t>
@@ -286,7 +286,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Descuento de nomina;
 *Sin puntos ni comas</t>
@@ -311,7 +311,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
 *Sin puntos ni comas</t>
@@ -336,7 +336,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Consultar usos</t>
         </r>
@@ -360,7 +360,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nombre del Crédito;
 *Se recomienda usar el primer nombre del Cliente</t>
@@ -385,7 +385,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Mes en el cual se va a lanzar la Originación;
 *Siempre mes Actual
@@ -411,7 +411,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Año de nacimiento del cliente;
 *Debe estar en formato:
@@ -439,7 +439,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Año actual.
 *Formato;
@@ -465,7 +465,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Numero Celular del Cliente;
 *Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
@@ -490,7 +490,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Correo electrónico del Cliente;
 *Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
@@ -515,7 +515,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tipo de desembolso del crédito.
 *Debe coincidir con las opciones del sistema</t>
@@ -540,7 +540,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fecha Actual
 *Formato de fecha:
@@ -568,7 +568,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Consultar usos</t>
         </r>
@@ -592,7 +592,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Numero de radicación de la solicitud.
 Consultarlo en base de datos.</t>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="359">
   <si>
     <t>Cedula</t>
   </si>
@@ -1269,359 +1269,425 @@
     <t xml:space="preserve"> Banco                             </t>
   </si>
   <si>
-    <t xml:space="preserve"> "P.A COLPENSIONES" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3994518" </t>
+    <t xml:space="preserve">"P.A COLPENSIONES" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "8500000" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"250000" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Pensionado" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"20500000"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Jubilados"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "10/03/2000" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cundinamarca" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Anapoima" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"src/test/resources/Data/PDFPRUEBA.pdf" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Educacion propia" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "M"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Soltera/o" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Calle 2d #22-52"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Arriendo"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"perez"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "alejandro"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "7210273"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "9007146"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3112" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2022"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Efectivo" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "'ACRED','EGRESO'" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "upper('Desembolso egreso'), upper('Desembolso activación de crédito')" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "15/02/1956"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Entidad donde trabaja" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ""           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ""   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "12345" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "06/08/1976"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Estrato 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Casa"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Jefe de hogar" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Universitario"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "100000"         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Desprendible de nómina" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "5000000"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Pago masivo (efectivo)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "AAA"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "colombia"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "colombia"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "colombiano" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ingeniero" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "24"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2"         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "0"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "pension"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "123456"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "30/12/2022"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "123456"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Certificación laboral" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CEO" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Luis Perez Ramirez" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1234567890"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3183903022"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "No"             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Importaciones"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Santander" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "966855"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Inversiones en oro" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Alemania" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Berlin"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "8500" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Euros" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "No"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "No"                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "12/12/2008"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Febrero" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "20/07/1963" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2022"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "16/02/2022" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Vinculado" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Plan 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Si"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Juli Macias"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Prima"            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "maria"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "camila"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "lopez"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "cardenas"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Amigo"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3204567894" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "juan"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "david"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "reyes"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sanchez"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Hijo"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3204047804" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "No"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Pensionado por Invalidez" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3994518" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1.71" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"60"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"30500000"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"90"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"200000"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abril" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"14/04/2022"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SERGIO"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SEGUNDO"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "URZOLA"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "BERTEL"        </t>
+  </si>
+  <si>
+    <t>"05/04/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Florencia"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"600000"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "lespitiameza@gmail.com" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3219176522" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29/10/2021    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"600000"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0"          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DELIO ARNULFO ROJAS GUIO" </t>
+  </si>
+  <si>
+    <t>"Compra de cartera"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"14206887" </t>
   </si>
   <si>
     <t xml:space="preserve"> "1.70" </t>
   </si>
   <si>
-    <t xml:space="preserve"> "16"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "90"                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "8500000" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "250000" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "300000"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Marzo" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "14/03/2022"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "SERGIO"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "SEGUNDO"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "URZOLA"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "BERTEL"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "18/Mar/2022" </t>
+    <t xml:space="preserve">"24"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"40500000"      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"60"                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"300000"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Marzo" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"14/03/2022"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "JOSE"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DEL CARMEN"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "VILLARREAL"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GONZALEZ"        </t>
+  </si>
+  <si>
+    <t>"30/03/2022"</t>
   </si>
   <si>
     <t xml:space="preserve"> "Soacha"      </t>
   </si>
   <si>
-    <t xml:space="preserve"> "Pensionado" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "20500000"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "500000"              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Jubilados"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "10/03/2000" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "lespitiameza@gmail.com" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3219176522" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Cundinamarca" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Anapoima" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "src/test/resources/Data/PDFPRUEBA.pdf" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Educacion propia" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "M"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Soltera/o" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Calle 2d #22-52"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Arriendo"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "perez"             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "alejandro"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "7210273"          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "9007146"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3112" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2022"      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Efectivo" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Remanentes - 60237038927 - REMANENTE" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "'ACRED','EGRESO'" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "upper('Desembolso egreso'), upper('Desembolso activación de crédito')" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29/10/2021    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "0"      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "0"          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "81768" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "DELIO ARNULFO ROJAS GUIO" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "15/02/1956"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Entidad donde trabaja" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Compra de cartera" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""           </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ""   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "12345" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "06/08/1976"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Estrato 1" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Casa"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Jefe de hogar" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Universitario"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "100000"         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Desprendible de nómina" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "5000000"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Pago masivo (efectivo)" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "AAA"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "colombia"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "colombia"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "colombiano" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ingeniero" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "24"            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2"         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "0"            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "pension"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "123456"             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "30/12/2022"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "123456"      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Certificación laboral" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "CEO" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Luis Perez Ramirez" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "1234567890"          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3183903022"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "No"             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Importaciones"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Santander" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "966855"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Inversiones en oro" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Alemania" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Berlin"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "8500" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Euros" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "No"               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "No"                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "12/12/2008"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Febrero" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "20/07/1963" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2022"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "16/02/2022" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Vinculado" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Plan 1" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Si"          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Juli Macias"   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Prima"            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "maria"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "camila"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "lopez"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "cardenas"    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Amigo"      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3204567894" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "juan"      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "david"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "reyes"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "sanchez"     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Hijo"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3204047804" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "No"              </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "92875"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Pensionado por Invalidez" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "1500000"      </t>
+    <t xml:space="preserve">"0"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "daabogadog@gmail.com" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3132739036" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29/10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"85900" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "JOSE DEL CARMEN VILLARREAL GONZALEZ" </t>
+  </si>
+  <si>
+    <t>"Libre inversion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"92947"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "92948"       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1633,7 +1699,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1657,6 +1723,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1678,12 +1757,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1692,7 +1786,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,13 +1797,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2128,16 +2236,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DN2"/>
+  <dimension ref="A1:DN3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -2157,7 +2265,7 @@
     <col min="20" max="20" width="39.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.42578125" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="31" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="15.85546875" customWidth="1"/>
     <col min="26" max="26" width="14.5703125" customWidth="1"/>
@@ -2183,7 +2291,7 @@
     <col min="47" max="47" width="16.5703125" customWidth="1"/>
     <col min="48" max="48" width="19.140625" customWidth="1"/>
     <col min="49" max="49" width="16.42578125" customWidth="1"/>
-    <col min="50" max="50" width="15.28515625" customWidth="1"/>
+    <col min="50" max="50" width="37.140625" customWidth="1"/>
     <col min="51" max="51" width="11.7109375" customWidth="1"/>
     <col min="52" max="52" width="22.5703125" customWidth="1"/>
     <col min="53" max="53" width="12.42578125" customWidth="1"/>
@@ -2556,361 +2664,720 @@
       <c r="A2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" t="s">
         <v>224</v>
       </c>
-      <c r="E2" t="s">
+      <c r="S2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="U2" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" t="s">
+        <v>328</v>
+      </c>
+      <c r="X2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>285</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>290</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>292</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>294</v>
+      </c>
+      <c r="CV2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="CW2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>303</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>304</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>305</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>306</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>308</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>309</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>310</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>311</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>357</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
         <v>336</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>348</v>
+      </c>
+      <c r="R3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" t="s">
         <v>225</v>
       </c>
-      <c r="G2" t="s">
+      <c r="T3" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="U3" t="s">
         <v>226</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V3" t="s">
         <v>227</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W3" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" t="s">
         <v>228</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Z3" t="s">
         <v>229</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB3" t="s">
         <v>231</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AC3" t="s">
         <v>232</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AD3" t="s">
         <v>233</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AE3" t="s">
         <v>234</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AF3" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AG3" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AH3" t="s">
         <v>237</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AI3" t="s">
         <v>238</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AJ3" t="s">
         <v>239</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AK3" t="s">
         <v>240</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AL3" t="s">
         <v>241</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AM3" t="s">
         <v>242</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AN3" t="s">
         <v>243</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AO3" t="s">
         <v>244</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AP3" t="s">
         <v>245</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AQ3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV3" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AW3" t="s">
         <v>247</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AX3" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AY3" t="s">
         <v>248</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AZ3" t="s">
         <v>249</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="BA3" t="s">
         <v>250</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="BB3" t="s">
         <v>251</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="BC3" t="s">
         <v>252</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="BD3" t="s">
         <v>253</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="BE3" t="s">
         <v>254</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BF3" t="s">
         <v>255</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BG3" t="s">
         <v>256</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BH3" t="s">
         <v>257</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="BI3" t="s">
         <v>258</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="BJ3" t="s">
         <v>259</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BK3" t="s">
         <v>260</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BL3" t="s">
         <v>261</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BM3" t="s">
         <v>262</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BN3" t="s">
         <v>263</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BO3" t="s">
         <v>264</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BP3" t="s">
         <v>265</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BQ3" t="s">
         <v>266</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BR3" t="s">
         <v>267</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BS3" t="s">
         <v>268</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BT3" t="s">
         <v>269</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BU3" t="s">
         <v>270</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BV3" t="s">
         <v>271</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BW3" t="s">
         <v>272</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BX3" t="s">
         <v>273</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BY3" t="s">
         <v>274</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BZ3" t="s">
         <v>275</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="CA3" t="s">
         <v>276</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="CB3" t="s">
         <v>277</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CC3" t="s">
         <v>278</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CD3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CE3" t="s">
         <v>279</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CF3" t="s">
         <v>280</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CG3" t="s">
         <v>281</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CH3" t="s">
         <v>282</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CI3" t="s">
         <v>283</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CJ3" t="s">
         <v>284</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CK3" t="s">
         <v>285</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CL3" t="s">
         <v>286</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CM3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CN3" t="s">
         <v>287</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CO3" t="s">
         <v>288</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CP3" t="s">
         <v>289</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CQ3" t="s">
         <v>290</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CR3" t="s">
         <v>291</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CS3" t="s">
         <v>292</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CT3" t="s">
         <v>293</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CU3" t="s">
         <v>294</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CV3" t="s">
         <v>295</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CW3" t="s">
         <v>296</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CX3" t="s">
         <v>297</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CY3" t="s">
         <v>298</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CZ3" t="s">
         <v>299</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="DA3" t="s">
         <v>300</v>
       </c>
-      <c r="CD2" t="s">
-        <v>299</v>
-      </c>
-      <c r="CE2" t="s">
+      <c r="DB3" t="s">
         <v>301</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="DC3" t="s">
         <v>302</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="DD3" t="s">
         <v>303</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="DE3" t="s">
         <v>304</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DF3" t="s">
         <v>305</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DG3" t="s">
         <v>306</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DH3" t="s">
         <v>307</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DI3" t="s">
         <v>308</v>
       </c>
-      <c r="CM2" t="s">
-        <v>299</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="DJ3" t="s">
         <v>309</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DK3" t="s">
         <v>310</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DL3" t="s">
         <v>311</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DM3" t="s">
+        <v>358</v>
+      </c>
+      <c r="DN3" t="s">
         <v>312</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>313</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>317</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>320</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>321</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>322</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>324</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>325</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>326</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>327</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>328</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>329</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>330</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>331</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>332</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>333</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
